--- a/www/IndicatorsPerCountry/Botswana_CopperProduction_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_CopperProduction_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -102,13 +102,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Botswana_CopperProduction_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_CopperProduction_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="56">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,40 +39,112 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.645</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.715</t>
-  </si>
-  <si>
-    <t>4.24</t>
-  </si>
-  <si>
-    <t>3.661</t>
-  </si>
-  <si>
-    <t>3.285</t>
-  </si>
-  <si>
-    <t>3.275</t>
-  </si>
-  <si>
-    <t>2.852</t>
-  </si>
-  <si>
-    <t>2.319</t>
-  </si>
-  <si>
-    <t>5.326</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.84</t>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>17.819</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>20.4</t>
+  </si>
+  <si>
+    <t>20.132</t>
+  </si>
+  <si>
+    <t>22.78</t>
+  </si>
+  <si>
+    <t>21.029</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>19.8</t>
+  </si>
+  <si>
+    <t>25.43</t>
+  </si>
+  <si>
+    <t>20.96</t>
+  </si>
+  <si>
+    <t>20.977</t>
+  </si>
+  <si>
+    <t>17.057</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35.768</t>
   </si>
   <si>
     <t>Description</t>
@@ -4372,7 +4444,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
@@ -4389,7 +4461,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250">
@@ -4406,7 +4478,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
@@ -4423,7 +4495,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
@@ -4440,7 +4512,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -4457,7 +4529,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">
@@ -4474,7 +4546,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
@@ -4491,7 +4563,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -4508,7 +4580,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
@@ -4525,7 +4597,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
@@ -4542,7 +4614,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259">
@@ -4559,7 +4631,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -4576,7 +4648,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261">
@@ -4593,7 +4665,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262">
@@ -4610,7 +4682,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263">
@@ -4627,7 +4699,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264">
@@ -4644,7 +4716,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265">
@@ -4661,7 +4733,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266">
@@ -4678,7 +4750,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267">
@@ -4695,7 +4767,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268">
@@ -4712,7 +4784,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269">
@@ -4729,7 +4801,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270">
@@ -4746,7 +4818,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
@@ -4763,7 +4835,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
@@ -4780,7 +4852,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273">
@@ -4797,7 +4869,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -4814,7 +4886,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275">
@@ -4831,7 +4903,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -4848,7 +4920,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277">
@@ -4865,7 +4937,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="278">
@@ -4882,7 +4954,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279">
@@ -4899,7 +4971,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280">
@@ -4916,7 +4988,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281">
@@ -4933,7 +5005,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282">
@@ -4950,7 +5022,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
@@ -4967,7 +5039,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284">
@@ -4984,7 +5056,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285">
@@ -5001,7 +5073,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286">
@@ -5018,7 +5090,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287">
@@ -5035,7 +5107,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5053,50 +5125,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
